--- a/assets/public/Chapter_4_ComprehensiveProblem - Copy/documents/resources/Assessment_Questions/5.7__Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem - Copy/documents/resources/Assessment_Questions/5.7__Student_Q_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem - Copy\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D77FAF3-DF50-4F00-AA45-EDB61FD6C8C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A9629-0104-40F1-9FE0-1B84BBE17F32}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -142,7 +142,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -405,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -441,15 +447,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,18 +478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,6 +486,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFFDC689"/>
@@ -797,47 +805,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9831DC37-9DAE-4B98-977F-F5962D0F2D2A}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
@@ -854,128 +865,128 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6"/>
@@ -986,11 +997,36 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="9" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="9" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B12:F12"/>
@@ -999,11 +1035,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
